--- a/biology/Zoologie/Alopecosa_zonsteini/Alopecosa_zonsteini.xlsx
+++ b/biology/Zoologie/Alopecosa_zonsteini/Alopecosa_zonsteini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alopecosa zonsteini est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alopecosa zonsteini est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Namangan en Ouzbékistan[1],[2]. Elle se rencontre vers Pop.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Namangan en Ouzbékistan,. Elle se rencontre vers Pop.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace de la femelle holotype mesure 6,25 mm de long sur 4,50 mm et l'abdomen 7,00 mm de long sur 4,75 mm et la carapace du mâle paratype 4,75 mm de long sur 4,15 mm et l'abdomen 5,85 mm de long sur 3,65 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace de la femelle holotype mesure 6,25 mm de long sur 4,50 mm et l'abdomen 7,00 mm de long sur 4,75 mm et la carapace du mâle paratype 4,75 mm de long sur 4,15 mm et l'abdomen 5,85 mm de long sur 3,65 mm.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Logunov en 2023.
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Sergey L. Zonstein[2]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Sergey L. Zonstein. 
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Logunov, 2023 : « Further notes on the fossorial wolf spiders of Middle Asia and the Near East (Aranei: Lycosidae). » Arthropoda Selecta, vol. 32, no 4, p. 475-512 (texte intégral).</t>
         </is>
